--- a/2021年毅仔的日常.xlsx
+++ b/2021年毅仔的日常.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\看到都会红着脸躲避\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\看到都会红着脸躲避\学习笔记\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F244A8CA-3630-41B2-91A3-322A21E8CEB9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5DD014F-0D85-4A7E-A06C-C83606DFD1D0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{99AB4C2B-ACE2-4EB7-922A-D398DB1285CB}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>观影</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -125,6 +125,10 @@
   </si>
   <si>
     <t>《王立群说史记之大风歌》</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>王立群老师从"荆轲刺秦王"开始引出千古一帝-秦始皇,然后再讲"奋六世之余烈" ; 商鞅变法,三家分晋,奇货可居，胡服骑射,长平之战等等历史事件是秦始皇统一天下的内因和外因。秦王扫六合统一天下。统一天下秦始皇，统一文字，统一度量。焚书坑儒，建阿房修长城，重劳逸。最后沙丘政变，始皇帝横尸銮驾。再讲二世，赵高，李斯的下场。最后老师总结的时候，将秦始皇的一生分为4个阶段 13岁前：在赵国战战兢兢，经历苦难。 13岁到22岁：回到秦国，父亲继位，3年后，父亲去世，自己当上秦王，但是朝政由吕不韦把持。22岁到39岁：平嫪毐，杀吕不韦，统一六国，称始皇帝。39岁后：治理天下，确定郡县制，统一文字，统一度量，修驰道，修长城，建阿房，建秦陵，焚书坑儒，没有提前安顿好后事，导致沙丘政变。</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -572,8 +576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DDD7C25-1A89-4AC6-B272-86E06B5A1B9A}">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -581,7 +585,7 @@
     <col min="1" max="1" width="7.5" customWidth="1"/>
     <col min="2" max="2" width="22.125" customWidth="1"/>
     <col min="3" max="3" width="52.125" customWidth="1"/>
-    <col min="4" max="4" width="20.25" customWidth="1"/>
+    <col min="4" max="4" width="26.125" customWidth="1"/>
     <col min="5" max="5" width="58.875" customWidth="1"/>
     <col min="6" max="6" width="32.25" customWidth="1"/>
     <col min="7" max="7" width="58" customWidth="1"/>
@@ -633,7 +637,7 @@
       <c r="E3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G3" s="9" t="s">
@@ -653,11 +657,14 @@
       <c r="D4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="5" t="s">
         <v>22</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="84" customHeight="1" x14ac:dyDescent="0.2">

--- a/2021年毅仔的日常.xlsx
+++ b/2021年毅仔的日常.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\看到都会红着脸躲避\学习笔记\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5DD014F-0D85-4A7E-A06C-C83606DFD1D0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02288377-0090-40FF-98F9-7F2BF248E311}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{99AB4C2B-ACE2-4EB7-922A-D398DB1285CB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{99AB4C2B-ACE2-4EB7-922A-D398DB1285CB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>观影</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -129,6 +129,26 @@
   </si>
   <si>
     <t>王立群老师从"荆轲刺秦王"开始引出千古一帝-秦始皇,然后再讲"奋六世之余烈" ; 商鞅变法,三家分晋,奇货可居，胡服骑射,长平之战等等历史事件是秦始皇统一天下的内因和外因。秦王扫六合统一天下。统一天下秦始皇，统一文字，统一度量。焚书坑儒，建阿房修长城，重劳逸。最后沙丘政变，始皇帝横尸銮驾。再讲二世，赵高，李斯的下场。最后老师总结的时候，将秦始皇的一生分为4个阶段 13岁前：在赵国战战兢兢，经历苦难。 13岁到22岁：回到秦国，父亲继位，3年后，父亲去世，自己当上秦王，但是朝政由吕不韦把持。22岁到39岁：平嫪毐，杀吕不韦，统一六国，称始皇帝。39岁后：治理天下，确定郡县制，统一文字，统一度量，修驰道，修长城，建阿房，建秦陵，焚书坑儒，没有提前安顿好后事，导致沙丘政变。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3月份</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>《破坏之王》</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>《王立群说史记之汉武帝》</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>本电影全程高能！！！阿丽说起她的意中人是一个英雄的时候，他的衣柜上贴着终结者的海报，接着转场，何金银登场，模仿终结者中施瓦辛格的经典裸体登场。阿丽和何金银的发生联系。阿银为了请阿丽看张学友演唱会！！！出现了“我爱黎明，我爱黎明”的金句，还有排队过程的情节。最后学友的出现。阿银在和阿丽约会看电影的时候手上弄了米田共，波澜起伏。黑熊的出现弄了一脸的米田共，然后黑熊打出一拳，阿银躲开了，打中了阿丽。阿银被所有人指责是懦夫。最后又在众人面前讲出黑熊满脸米田共的事情，被黑熊再度羞辱。然后被阿丽看到，阿银伤心欲绝，看到了“懦夫克星”的招牌，然后达叔登场了。。。然后本电影开始进入高潮，达叔的欺骗，达叔的表演“功夫”，电光毒龙钻，血滴子，铁砂掌，最后表演咸蛋超人，假装弄坏桌子，骗阿银上当，交钱的时候，两人两只手的演绎更是精彩。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>《我爱我家》</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -574,10 +594,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DDD7C25-1A89-4AC6-B272-86E06B5A1B9A}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -700,6 +720,25 @@
         <v>21</v>
       </c>
     </row>
+    <row r="8" spans="1:9" ht="235.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F9" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="B2:C2"/>
